--- a/hrd.xlsx
+++ b/hrd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\khasra2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B672F12-2112-42C1-97D1-01DA59F4BC6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16656643-15E8-4737-A3D0-80D7A9BFFC4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rabi" sheetId="5" r:id="rId1"/>
@@ -4235,7 +4235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18942" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18940" uniqueCount="2290">
   <si>
     <t>iteration</t>
   </si>
@@ -35922,7 +35922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856D28D6-8013-4A90-9D8A-C2E0C33ACBB8}">
   <dimension ref="A1:K756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
@@ -86808,8 +86808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23EE0A5-AA26-4369-B8C5-ADCE5B4197E9}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86830,9 +86830,7 @@
       <c r="C1" s="2" t="s">
         <v>2275</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2278</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -86844,9 +86842,7 @@
       <c r="C2" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2277</v>
-      </c>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -86916,10 +86912,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E13EA1A1-CCDC-45A0-927A-077A554C6339}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>